--- a/Code/Results/Cases/Case_1_205/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_205/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6.006300205276649</v>
+        <v>4.84879116695716</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.261994690187739</v>
+        <v>4.869771222072401</v>
       </c>
       <c r="E2">
-        <v>6.279130223258651</v>
+        <v>10.7560945941401</v>
       </c>
       <c r="F2">
-        <v>39.88482133815934</v>
+        <v>50.50267402812657</v>
       </c>
       <c r="G2">
-        <v>2.119062177079777</v>
+        <v>3.755582436368115</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>16.89264883288973</v>
+        <v>24.50450999475602</v>
       </c>
       <c r="J2">
-        <v>5.769908327533722</v>
+        <v>9.935957353701047</v>
       </c>
       <c r="K2">
-        <v>20.31990100444337</v>
+        <v>20.87932439583977</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>15.9975981953883</v>
+        <v>20.7080905607765</v>
       </c>
       <c r="N2">
-        <v>14.76811245667974</v>
+        <v>22.3180102131972</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.740159081183303</v>
+        <v>4.72436958968858</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.215692399578798</v>
+        <v>4.870079194022711</v>
       </c>
       <c r="E3">
-        <v>6.220897146398189</v>
+        <v>10.77109872029198</v>
       </c>
       <c r="F3">
-        <v>38.71884711317595</v>
+        <v>50.42106370104749</v>
       </c>
       <c r="G3">
-        <v>2.129983236877091</v>
+        <v>3.759465849973319</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>16.98997807803364</v>
+        <v>24.56268877351807</v>
       </c>
       <c r="J3">
-        <v>5.79025749824323</v>
+        <v>9.956761495249888</v>
       </c>
       <c r="K3">
-        <v>19.14141491077865</v>
+        <v>20.66533352164155</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>15.30991715012933</v>
+        <v>20.64305506517399</v>
       </c>
       <c r="N3">
-        <v>14.97752237153414</v>
+        <v>22.37739282630111</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.569053065719599</v>
+        <v>4.64514183132652</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.187576600452101</v>
+        <v>4.870548813941742</v>
       </c>
       <c r="E4">
-        <v>6.187876933387</v>
+        <v>10.78166359961805</v>
       </c>
       <c r="F4">
-        <v>38.02477355199484</v>
+        <v>50.38286304294289</v>
       </c>
       <c r="G4">
-        <v>2.136842910153022</v>
+        <v>3.761973689669821</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>17.05902635751288</v>
+        <v>24.60176976172647</v>
       </c>
       <c r="J4">
-        <v>5.805048270762256</v>
+        <v>9.970568671844019</v>
       </c>
       <c r="K4">
-        <v>18.39829425628001</v>
+        <v>20.53872495515368</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14.88504211565842</v>
+        <v>20.60771804480938</v>
       </c>
       <c r="N4">
-        <v>15.10995830958884</v>
+        <v>22.41579900825034</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.497438002136613</v>
+        <v>4.612167921280276</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.176193488572108</v>
+        <v>4.870810981644129</v>
       </c>
       <c r="E5">
-        <v>6.175098854827969</v>
+        <v>10.78630917428872</v>
       </c>
       <c r="F5">
-        <v>37.7475098664498</v>
+        <v>50.37029415257454</v>
       </c>
       <c r="G5">
-        <v>2.139679622235703</v>
+        <v>3.76302680559138</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>17.08940021516489</v>
+        <v>24.61853927011352</v>
       </c>
       <c r="J5">
-        <v>5.811637350645263</v>
+        <v>9.976455349916051</v>
       </c>
       <c r="K5">
-        <v>18.09079553940355</v>
+        <v>20.48838792641097</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.71143228953585</v>
+        <v>20.59448241758515</v>
       </c>
       <c r="N5">
-        <v>15.16489932668763</v>
+        <v>22.43193963740609</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.485433870022458</v>
+        <v>4.606651825497841</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.174307712578243</v>
+        <v>4.870858797586616</v>
       </c>
       <c r="E6">
-        <v>6.173017718625673</v>
+        <v>10.78710112874386</v>
       </c>
       <c r="F6">
-        <v>37.7018099113791</v>
+        <v>50.36838823944626</v>
       </c>
       <c r="G6">
-        <v>2.140153224949273</v>
+        <v>3.763203559616573</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>17.09457604877917</v>
+        <v>24.621374762702</v>
       </c>
       <c r="J6">
-        <v>5.812764949018286</v>
+        <v>9.977448548997074</v>
       </c>
       <c r="K6">
-        <v>18.03946194583478</v>
+        <v>20.48010695417002</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.68258239467306</v>
+        <v>20.59235522341961</v>
       </c>
       <c r="N6">
-        <v>15.174081063528</v>
+        <v>22.43464938024405</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5.56809481666092</v>
+        <v>4.644699885668883</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.187422787992164</v>
+        <v>4.870552062630455</v>
       </c>
       <c r="E7">
-        <v>6.187701871956204</v>
+        <v>10.78172487327004</v>
       </c>
       <c r="F7">
-        <v>38.02101157738372</v>
+        <v>50.38268139218347</v>
       </c>
       <c r="G7">
-        <v>2.136880996378474</v>
+        <v>3.761987766075217</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>17.05942706242045</v>
+        <v>24.60199250646341</v>
       </c>
       <c r="J7">
-        <v>5.80513487901295</v>
+        <v>9.97064700794988</v>
       </c>
       <c r="K7">
-        <v>18.39416576318111</v>
+        <v>20.53804093320601</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14.88270237652038</v>
+        <v>20.60753481859089</v>
       </c>
       <c r="N7">
-        <v>15.11069532227433</v>
+        <v>22.41601470236369</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5.916157416115357</v>
+        <v>4.806492432520637</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.245961163394786</v>
+        <v>4.86981933954941</v>
       </c>
       <c r="E8">
-        <v>6.258477854419989</v>
+        <v>10.76098751147587</v>
       </c>
       <c r="F8">
-        <v>39.47830777084729</v>
+        <v>50.47206617384447</v>
       </c>
       <c r="G8">
-        <v>2.122797399412756</v>
+        <v>3.756895895776539</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>16.92421839265715</v>
+        <v>24.52387231106083</v>
       </c>
       <c r="J8">
-        <v>5.776438346928195</v>
+        <v>9.942916328522463</v>
       </c>
       <c r="K8">
-        <v>19.91773175287368</v>
+        <v>20.80458110838038</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>15.76113848356202</v>
+        <v>20.68471841958873</v>
       </c>
       <c r="N8">
-        <v>14.83951727657636</v>
+        <v>22.33808207584445</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6.535972708183153</v>
+        <v>5.100326324830294</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>2.363560177966536</v>
+        <v>4.87059761594973</v>
       </c>
       <c r="E9">
-        <v>6.419429086826798</v>
+        <v>10.73103978072681</v>
       </c>
       <c r="F9">
-        <v>42.50672756372142</v>
+        <v>50.74156804437659</v>
       </c>
       <c r="G9">
-        <v>2.096273540844316</v>
+        <v>3.747884516510303</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>16.73760248121687</v>
+        <v>24.39737360897687</v>
       </c>
       <c r="J9">
-        <v>5.739149631933067</v>
+        <v>9.896722631309016</v>
       </c>
       <c r="K9">
-        <v>22.77533568487229</v>
+        <v>21.36270448535568</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>17.45615975344434</v>
+        <v>20.87208242000512</v>
       </c>
       <c r="N9">
-        <v>14.33833611785424</v>
+        <v>22.20065642922668</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.951299917996932</v>
+        <v>5.300756336229026</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>2.452296876802731</v>
+        <v>4.872506156197775</v>
       </c>
       <c r="E10">
-        <v>6.551879862962632</v>
+        <v>10.71555520383344</v>
       </c>
       <c r="F10">
-        <v>44.83506507203995</v>
+        <v>50.99649486640959</v>
       </c>
       <c r="G10">
-        <v>2.07725361928303</v>
+        <v>3.741849896591527</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>16.65566533657923</v>
+        <v>24.32076741194567</v>
       </c>
       <c r="J10">
-        <v>5.724487785756365</v>
+        <v>9.867756957249</v>
       </c>
       <c r="K10">
-        <v>25.03145108214219</v>
+        <v>21.79086226087325</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>18.67851736043234</v>
+        <v>21.03100581386328</v>
       </c>
       <c r="N10">
-        <v>13.98896110235965</v>
+        <v>22.10903136605872</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.131270433684489</v>
+        <v>5.388373330492689</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>2.493375114148835</v>
+        <v>4.873661778517445</v>
       </c>
       <c r="E11">
-        <v>6.615393623272715</v>
+        <v>10.7099222297344</v>
       </c>
       <c r="F11">
-        <v>45.91765236725763</v>
+        <v>51.1246650524042</v>
       </c>
       <c r="G11">
-        <v>2.068651329862581</v>
+        <v>3.739230222668432</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>16.63216541164361</v>
+        <v>24.28947608894972</v>
       </c>
       <c r="J11">
-        <v>5.720871031093811</v>
+        <v>9.855655854859686</v>
       </c>
       <c r="K11">
-        <v>26.02055113946315</v>
+        <v>21.98880176362842</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>19.2291294218253</v>
+        <v>21.10775195762555</v>
       </c>
       <c r="N11">
-        <v>13.83423826217513</v>
+        <v>22.06936755915502</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.198113817121858</v>
+        <v>5.421024460578101</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>2.509054943498492</v>
+        <v>4.87414045604454</v>
       </c>
       <c r="E12">
-        <v>6.639930527065598</v>
+        <v>10.7079916735871</v>
       </c>
       <c r="F12">
-        <v>46.33113260201671</v>
+        <v>51.17493633300213</v>
       </c>
       <c r="G12">
-        <v>2.065396170522049</v>
+        <v>3.738256143041926</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>16.62541369257255</v>
+        <v>24.27813942443199</v>
       </c>
       <c r="J12">
-        <v>5.719967466650563</v>
+        <v>9.851227862607068</v>
       </c>
       <c r="K12">
-        <v>26.3900349213005</v>
+        <v>22.06414633262169</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>19.43686372594791</v>
+        <v>21.13743764187071</v>
       </c>
       <c r="N12">
-        <v>13.77627302165115</v>
+        <v>22.05463729919838</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.183776311503117</v>
+        <v>5.414016149732799</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>2.505672071597278</v>
+        <v>4.874035541932161</v>
       </c>
       <c r="E13">
-        <v>6.634624170387561</v>
+        <v>10.70839845224389</v>
       </c>
       <c r="F13">
-        <v>46.2419218374453</v>
+        <v>51.16403262827725</v>
       </c>
       <c r="G13">
-        <v>2.06609720715682</v>
+        <v>3.738465132698164</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>16.62676947812414</v>
+        <v>24.28055815815846</v>
       </c>
       <c r="J13">
-        <v>5.720140877952276</v>
+        <v>9.852174645122432</v>
       </c>
       <c r="K13">
-        <v>26.31068034193894</v>
+        <v>22.04790328000749</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>19.39215802545067</v>
+        <v>21.13101683765247</v>
       </c>
       <c r="N13">
-        <v>13.78872868585343</v>
+        <v>22.05779685295057</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.136795978433051</v>
+        <v>5.391070215023898</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>2.494662465076792</v>
+        <v>4.873700338035787</v>
       </c>
       <c r="E14">
-        <v>6.61740245055533</v>
+        <v>10.70975934501932</v>
       </c>
       <c r="F14">
-        <v>45.95159770020584</v>
+        <v>51.12876622478165</v>
       </c>
       <c r="G14">
-        <v>2.068383509029541</v>
+        <v>3.739149725774856</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>16.63156590062223</v>
+        <v>24.28853313331009</v>
       </c>
       <c r="J14">
-        <v>5.72078718956363</v>
+        <v>9.855288467504897</v>
       </c>
       <c r="K14">
-        <v>26.05104855943359</v>
+        <v>21.99499298736409</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>19.24623506197532</v>
+        <v>21.11018181715867</v>
       </c>
       <c r="N14">
-        <v>13.82945676315547</v>
+        <v>22.06814989110305</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.10784839464692</v>
+        <v>5.376946030740623</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>2.487935706507574</v>
+        <v>4.87350035650529</v>
       </c>
       <c r="E15">
-        <v>6.606917436596713</v>
+        <v>10.71061929460266</v>
       </c>
       <c r="F15">
-        <v>45.77423146631649</v>
+        <v>51.10739001598547</v>
       </c>
       <c r="G15">
-        <v>2.069784085308344</v>
+        <v>3.739571390982808</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>16.6347886863639</v>
+        <v>24.29348483595225</v>
       </c>
       <c r="J15">
-        <v>5.721244614357133</v>
+        <v>9.857215878609047</v>
       </c>
       <c r="K15">
-        <v>25.89136590294912</v>
+        <v>21.96263261631481</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>19.15675380993462</v>
+        <v>21.09750046824653</v>
       </c>
       <c r="N15">
-        <v>13.85448598116899</v>
+        <v>22.07452912219715</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.939356379888731</v>
+        <v>5.294957356162009</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>2.449628406764682</v>
+        <v>4.872436394780564</v>
       </c>
       <c r="E16">
-        <v>6.547796073510749</v>
+        <v>10.71595169423363</v>
       </c>
       <c r="F16">
-        <v>44.76479845249048</v>
+        <v>50.98836265012557</v>
       </c>
       <c r="G16">
-        <v>2.077816404464941</v>
+        <v>3.742023614217506</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>16.65749216039276</v>
+        <v>24.32288405316488</v>
       </c>
       <c r="J16">
-        <v>5.724787827781381</v>
+        <v>9.868569415659838</v>
       </c>
       <c r="K16">
-        <v>24.96608556671869</v>
+        <v>21.7779845265275</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>18.64242406686602</v>
+        <v>21.02607845540059</v>
       </c>
       <c r="N16">
-        <v>13.99915882343584</v>
+        <v>22.11166403393847</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.833681791324272</v>
+        <v>5.243736605919209</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>2.426324494024064</v>
+        <v>4.871857117333898</v>
       </c>
       <c r="E17">
-        <v>6.512373302004762</v>
+        <v>10.71958409245096</v>
       </c>
       <c r="F17">
-        <v>44.15162955329179</v>
+        <v>50.91845610395605</v>
       </c>
       <c r="G17">
-        <v>2.082753513045273</v>
+        <v>3.743560037725295</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>16.67506148817848</v>
+        <v>24.34183143909304</v>
       </c>
       <c r="J17">
-        <v>5.727761763254216</v>
+        <v>9.875809749093785</v>
       </c>
       <c r="K17">
-        <v>24.38911354462835</v>
+        <v>21.66547316150163</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>18.32549995095491</v>
+        <v>20.98339200370864</v>
       </c>
       <c r="N17">
-        <v>14.08900083607806</v>
+        <v>22.13496133619344</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6.772057700522831</v>
+        <v>5.213941567389979</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>2.41298606452002</v>
+        <v>4.871551001127292</v>
       </c>
       <c r="E18">
-        <v>6.492304880836073</v>
+        <v>10.72180619013921</v>
       </c>
       <c r="F18">
-        <v>43.80114061805025</v>
+        <v>50.87939756653274</v>
       </c>
       <c r="G18">
-        <v>2.085598234454967</v>
+        <v>3.744455567765919</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>16.68645249857479</v>
+        <v>24.35306422892214</v>
       </c>
       <c r="J18">
-        <v>5.729757881032496</v>
+        <v>9.880075444620323</v>
       </c>
       <c r="K18">
-        <v>24.0537319264307</v>
+        <v>21.60106181669909</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>18.14269769691457</v>
+        <v>20.9592598981354</v>
       </c>
       <c r="N18">
-        <v>14.14107025166693</v>
+        <v>22.14855119409324</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6.75104870247914</v>
+        <v>5.203796580363479</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>2.408480536230567</v>
+        <v>4.871452012509448</v>
       </c>
       <c r="E19">
-        <v>6.485562120669769</v>
+        <v>10.72258138023331</v>
       </c>
       <c r="F19">
-        <v>43.68284360444967</v>
+        <v>50.86637103506997</v>
       </c>
       <c r="G19">
-        <v>2.086562409407538</v>
+        <v>3.744760812386637</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>16.69052527569683</v>
+        <v>24.35692491735766</v>
       </c>
       <c r="J19">
-        <v>5.730482004728046</v>
+        <v>9.881537132087004</v>
       </c>
       <c r="K19">
-        <v>23.93956444911372</v>
+        <v>21.57930717128852</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>18.08071572765184</v>
+        <v>20.95116180434761</v>
       </c>
       <c r="N19">
-        <v>14.15876736377004</v>
+        <v>22.15318511061798</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.845018410012018</v>
+        <v>5.249223850944506</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>2.428798326438497</v>
+        <v>4.871915982776406</v>
       </c>
       <c r="E20">
-        <v>6.516112353655355</v>
+        <v>10.71918367181913</v>
       </c>
       <c r="F20">
-        <v>44.2166749171005</v>
+        <v>50.92577889673073</v>
       </c>
       <c r="G20">
-        <v>2.082227462257052</v>
+        <v>3.743395260330726</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>16.67305699137069</v>
+        <v>24.33977980325906</v>
       </c>
       <c r="J20">
-        <v>5.727415438723462</v>
+        <v>9.875028526190713</v>
       </c>
       <c r="K20">
-        <v>24.45089584051072</v>
+        <v>21.67741939132924</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>18.35929050598364</v>
+        <v>20.98789269576342</v>
       </c>
       <c r="N20">
-        <v>14.07939603503</v>
+        <v>22.13246165165361</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.150630858506668</v>
+        <v>5.39782442602289</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>2.497892675526937</v>
+        <v>4.873797683053391</v>
       </c>
       <c r="E21">
-        <v>6.622447560015324</v>
+        <v>10.7093541244233</v>
       </c>
       <c r="F21">
-        <v>46.03677547773453</v>
+        <v>51.1390778690757</v>
       </c>
       <c r="G21">
-        <v>2.067711944965233</v>
+        <v>3.738948158370754</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>16.63009739530666</v>
+        <v>24.28617676667265</v>
       </c>
       <c r="J21">
-        <v>5.720584474918815</v>
+        <v>9.854369672931744</v>
       </c>
       <c r="K21">
-        <v>26.12744374268091</v>
+        <v>22.01052398996623</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>19.28911676689402</v>
+        <v>21.11628478016163</v>
       </c>
       <c r="N21">
-        <v>13.81747678531873</v>
+        <v>22.06510109775055</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.342738544733581</v>
+        <v>5.4918625140296</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>2.543789058442801</v>
+        <v>4.875266739036654</v>
       </c>
       <c r="E22">
-        <v>6.694784362533992</v>
+        <v>10.70411024063467</v>
       </c>
       <c r="F22">
-        <v>47.24701950595497</v>
+        <v>51.28858945352989</v>
       </c>
       <c r="G22">
-        <v>2.058236135760123</v>
+        <v>3.736146201103714</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>16.61462525867249</v>
+        <v>24.25413289927522</v>
       </c>
       <c r="J22">
-        <v>5.718851070091964</v>
+        <v>9.841767965787154</v>
       </c>
       <c r="K22">
-        <v>27.19379419000115</v>
+        <v>22.23046482481375</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>20.02571824289297</v>
+        <v>21.20382281588649</v>
       </c>
       <c r="N22">
-        <v>13.64995488914815</v>
+        <v>22.02276467865784</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.240910274371432</v>
+        <v>5.44195929325454</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>2.519216953809471</v>
+        <v>4.874460871054968</v>
       </c>
       <c r="E23">
-        <v>6.655910617735733</v>
+        <v>10.70680113669119</v>
       </c>
       <c r="F23">
-        <v>46.59911872990865</v>
+        <v>51.20787421803526</v>
       </c>
       <c r="G23">
-        <v>2.063294325251761</v>
+        <v>3.737632135778234</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>16.62167049326133</v>
+        <v>24.27096146062878</v>
       </c>
       <c r="J23">
-        <v>5.719516635011825</v>
+        <v>9.848411453988646</v>
       </c>
       <c r="K23">
-        <v>26.62724489482103</v>
+        <v>22.11289542388364</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>19.61005381517321</v>
+        <v>21.15677600689263</v>
       </c>
       <c r="N23">
-        <v>13.73902129855469</v>
+        <v>22.04520615372806</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.839895834248158</v>
+        <v>5.246744148795171</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>2.427679723688733</v>
+        <v>4.871889285846745</v>
       </c>
       <c r="E24">
-        <v>6.514421005767884</v>
+        <v>10.71936428525288</v>
       </c>
       <c r="F24">
-        <v>44.18726159600573</v>
+        <v>50.92246473583783</v>
       </c>
       <c r="G24">
-        <v>2.082465269800556</v>
+        <v>3.74346971812085</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>16.6739592182012</v>
+        <v>24.34070628986362</v>
       </c>
       <c r="J24">
-        <v>5.727571122094406</v>
+        <v>9.875381395816781</v>
       </c>
       <c r="K24">
-        <v>24.42297552522865</v>
+        <v>21.67201764564613</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>18.34401566016991</v>
+        <v>20.98585665800363</v>
       </c>
       <c r="N24">
-        <v>14.0837370648583</v>
+        <v>22.13359114872531</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6.375220640998529</v>
+        <v>5.023472824942586</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>2.331392126587665</v>
+        <v>4.870151331701203</v>
       </c>
       <c r="E25">
-        <v>6.373447140971114</v>
+        <v>10.73799551387197</v>
       </c>
       <c r="F25">
-        <v>41.66941567335865</v>
+        <v>50.65861660903443</v>
       </c>
       <c r="G25">
-        <v>2.103351153807132</v>
+        <v>3.75021887181987</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>16.77896489283634</v>
+        <v>24.42873089487084</v>
       </c>
       <c r="J25">
-        <v>5.747091259690866</v>
+        <v>9.90834470523887</v>
       </c>
       <c r="K25">
-        <v>21.99724266478914</v>
+        <v>21.20827860428775</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>17.00134603639971</v>
+        <v>20.81760647947141</v>
       </c>
       <c r="N25">
-        <v>14.47063660819516</v>
+        <v>22.23618994728552</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_205/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_205/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.84879116695716</v>
+        <v>6.006300205276547</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.869771222072401</v>
+        <v>2.26199469018768</v>
       </c>
       <c r="E2">
-        <v>10.7560945941401</v>
+        <v>6.279130223258646</v>
       </c>
       <c r="F2">
-        <v>50.50267402812657</v>
+        <v>39.88482133815944</v>
       </c>
       <c r="G2">
-        <v>3.755582436368115</v>
+        <v>2.119062177079641</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>24.50450999475602</v>
+        <v>16.89264883288984</v>
       </c>
       <c r="J2">
-        <v>9.935957353701047</v>
+        <v>5.769908327533751</v>
       </c>
       <c r="K2">
-        <v>20.87932439583977</v>
+        <v>20.3199010044434</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>20.7080905607765</v>
+        <v>15.99759819538833</v>
       </c>
       <c r="N2">
-        <v>22.3180102131972</v>
+        <v>14.76811245667984</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.72436958968858</v>
+        <v>5.740159081183297</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.870079194022711</v>
+        <v>2.21569239957879</v>
       </c>
       <c r="E3">
-        <v>10.77109872029198</v>
+        <v>6.220897146398287</v>
       </c>
       <c r="F3">
-        <v>50.42106370104749</v>
+        <v>38.71884711317603</v>
       </c>
       <c r="G3">
-        <v>3.759465849973319</v>
+        <v>2.129983236877088</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>24.56268877351807</v>
+        <v>16.9899780780337</v>
       </c>
       <c r="J3">
-        <v>9.956761495249888</v>
+        <v>5.790257498243291</v>
       </c>
       <c r="K3">
-        <v>20.66533352164155</v>
+        <v>19.14141491077867</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>20.64305506517399</v>
+        <v>15.30991715012937</v>
       </c>
       <c r="N3">
-        <v>22.37739282630111</v>
+        <v>14.97752237153418</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.64514183132652</v>
+        <v>5.569053065719492</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.870548813941742</v>
+        <v>2.187576600451992</v>
       </c>
       <c r="E4">
-        <v>10.78166359961805</v>
+        <v>6.187876933386955</v>
       </c>
       <c r="F4">
-        <v>50.38286304294289</v>
+        <v>38.02477355199471</v>
       </c>
       <c r="G4">
-        <v>3.761973689669821</v>
+        <v>2.136842910153021</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>24.60176976172647</v>
+        <v>17.05902635751293</v>
       </c>
       <c r="J4">
-        <v>9.970568671844019</v>
+        <v>5.805048270762319</v>
       </c>
       <c r="K4">
-        <v>20.53872495515368</v>
+        <v>18.39829425627999</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>20.60771804480938</v>
+        <v>14.88504211565838</v>
       </c>
       <c r="N4">
-        <v>22.41579900825034</v>
+        <v>15.10995830958884</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.612167921280276</v>
+        <v>5.497438002136666</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.870810981644129</v>
+        <v>2.176193488572048</v>
       </c>
       <c r="E5">
-        <v>10.78630917428872</v>
+        <v>6.175098854827964</v>
       </c>
       <c r="F5">
-        <v>50.37029415257454</v>
+        <v>37.74750986644975</v>
       </c>
       <c r="G5">
-        <v>3.76302680559138</v>
+        <v>2.139679622235303</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>24.61853927011352</v>
+        <v>17.08940021516499</v>
       </c>
       <c r="J5">
-        <v>9.976455349916051</v>
+        <v>5.811637350645262</v>
       </c>
       <c r="K5">
-        <v>20.48838792641097</v>
+        <v>18.09079553940354</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>20.59448241758515</v>
+        <v>14.71143228953582</v>
       </c>
       <c r="N5">
-        <v>22.43193963740609</v>
+        <v>15.16489932668767</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4.606651825497841</v>
+        <v>5.48543387002251</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.870858797586616</v>
+        <v>2.174307712578353</v>
       </c>
       <c r="E6">
-        <v>10.78710112874386</v>
+        <v>6.173017718625714</v>
       </c>
       <c r="F6">
-        <v>50.36838823944626</v>
+        <v>37.70180991137928</v>
       </c>
       <c r="G6">
-        <v>3.763203559616573</v>
+        <v>2.140153224949138</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>24.621374762702</v>
+        <v>17.09457604877923</v>
       </c>
       <c r="J6">
-        <v>9.977448548997074</v>
+        <v>5.812764949018283</v>
       </c>
       <c r="K6">
-        <v>20.48010695417002</v>
+        <v>18.03946194583482</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>20.59235522341961</v>
+        <v>14.68258239467309</v>
       </c>
       <c r="N6">
-        <v>22.43464938024405</v>
+        <v>15.17408106352806</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4.644699885668883</v>
+        <v>5.568094816660815</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.870552062630455</v>
+        <v>2.187422787992229</v>
       </c>
       <c r="E7">
-        <v>10.78172487327004</v>
+        <v>6.187701871956241</v>
       </c>
       <c r="F7">
-        <v>50.38268139218347</v>
+        <v>38.02101157738368</v>
       </c>
       <c r="G7">
-        <v>3.761987766075217</v>
+        <v>2.136880996378608</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>24.60199250646341</v>
+        <v>17.05942706242037</v>
       </c>
       <c r="J7">
-        <v>9.97064700794988</v>
+        <v>5.805134879012944</v>
       </c>
       <c r="K7">
-        <v>20.53804093320601</v>
+        <v>18.39416576318112</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>20.60753481859089</v>
+        <v>14.8827023765204</v>
       </c>
       <c r="N7">
-        <v>22.41601470236369</v>
+        <v>15.11069532227424</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.806492432520637</v>
+        <v>5.916157416115357</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.86981933954941</v>
+        <v>2.245961163394901</v>
       </c>
       <c r="E8">
-        <v>10.76098751147587</v>
+        <v>6.258477854420041</v>
       </c>
       <c r="F8">
-        <v>50.47206617384447</v>
+        <v>39.47830777084726</v>
       </c>
       <c r="G8">
-        <v>3.756895895776539</v>
+        <v>2.122797399412888</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>24.52387231106083</v>
+        <v>16.9242183926571</v>
       </c>
       <c r="J8">
-        <v>9.942916328522463</v>
+        <v>5.776438346928255</v>
       </c>
       <c r="K8">
-        <v>20.80458110838038</v>
+        <v>19.91773175287367</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>20.68471841958873</v>
+        <v>15.76113848356201</v>
       </c>
       <c r="N8">
-        <v>22.33808207584445</v>
+        <v>14.83951727657634</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.100326324830294</v>
+        <v>6.535972708183244</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.87059761594973</v>
+        <v>2.363560177966311</v>
       </c>
       <c r="E9">
-        <v>10.73103978072681</v>
+        <v>6.419429086826703</v>
       </c>
       <c r="F9">
-        <v>50.74156804437659</v>
+        <v>42.50672756372142</v>
       </c>
       <c r="G9">
-        <v>3.747884516510303</v>
+        <v>2.096273540844179</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>24.39737360897687</v>
+        <v>16.73760248121689</v>
       </c>
       <c r="J9">
-        <v>9.896722631309016</v>
+        <v>5.739149631933035</v>
       </c>
       <c r="K9">
-        <v>21.36270448535568</v>
+        <v>22.77533568487227</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>20.87208242000512</v>
+        <v>17.45615975344434</v>
       </c>
       <c r="N9">
-        <v>22.20065642922668</v>
+        <v>14.33833611785429</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.300756336229026</v>
+        <v>6.951299917996953</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.872506156197775</v>
+        <v>2.452296876802795</v>
       </c>
       <c r="E10">
-        <v>10.71555520383344</v>
+        <v>6.551879862962638</v>
       </c>
       <c r="F10">
-        <v>50.99649486640959</v>
+        <v>44.83506507203985</v>
       </c>
       <c r="G10">
-        <v>3.741849896591527</v>
+        <v>2.077253619283036</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>24.32076741194567</v>
+        <v>16.65566533657916</v>
       </c>
       <c r="J10">
-        <v>9.867756957249</v>
+        <v>5.724487785756391</v>
       </c>
       <c r="K10">
-        <v>21.79086226087325</v>
+        <v>25.03145108214217</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>21.03100581386328</v>
+        <v>18.67851736043233</v>
       </c>
       <c r="N10">
-        <v>22.10903136605872</v>
+        <v>13.98896110235961</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.388373330492689</v>
+        <v>7.131270433684543</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.873661778517445</v>
+        <v>2.493375114148844</v>
       </c>
       <c r="E11">
-        <v>10.7099222297344</v>
+        <v>6.615393623272715</v>
       </c>
       <c r="F11">
-        <v>51.1246650524042</v>
+        <v>45.91765236725765</v>
       </c>
       <c r="G11">
-        <v>3.739230222668432</v>
+        <v>2.068651329862581</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>24.28947608894972</v>
+        <v>16.63216541164362</v>
       </c>
       <c r="J11">
-        <v>9.855655854859686</v>
+        <v>5.720871031093806</v>
       </c>
       <c r="K11">
-        <v>21.98880176362842</v>
+        <v>26.02055113946317</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>21.10775195762555</v>
+        <v>19.22912942182529</v>
       </c>
       <c r="N11">
-        <v>22.06936755915502</v>
+        <v>13.83423826217519</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.421024460578101</v>
+        <v>7.198113817121898</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.87414045604454</v>
+        <v>2.509054943498487</v>
       </c>
       <c r="E12">
-        <v>10.7079916735871</v>
+        <v>6.639930527065621</v>
       </c>
       <c r="F12">
-        <v>51.17493633300213</v>
+        <v>46.33113260201671</v>
       </c>
       <c r="G12">
-        <v>3.738256143041926</v>
+        <v>2.065396170522181</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>24.27813942443199</v>
+        <v>16.62541369257254</v>
       </c>
       <c r="J12">
-        <v>9.851227862607068</v>
+        <v>5.719967466650558</v>
       </c>
       <c r="K12">
-        <v>22.06414633262169</v>
+        <v>26.39003492130051</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>21.13743764187071</v>
+        <v>19.43686372594789</v>
       </c>
       <c r="N12">
-        <v>22.05463729919838</v>
+        <v>13.77627302165116</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.414016149732799</v>
+        <v>7.183776311503157</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.874035541932161</v>
+        <v>2.505672071597208</v>
       </c>
       <c r="E13">
-        <v>10.70839845224389</v>
+        <v>6.634624170387621</v>
       </c>
       <c r="F13">
-        <v>51.16403262827725</v>
+        <v>46.2419218374453</v>
       </c>
       <c r="G13">
-        <v>3.738465132698164</v>
+        <v>2.066097207156813</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>24.28055815815846</v>
+        <v>16.62676947812418</v>
       </c>
       <c r="J13">
-        <v>9.852174645122432</v>
+        <v>5.720140877952316</v>
       </c>
       <c r="K13">
-        <v>22.04790328000749</v>
+        <v>26.31068034193894</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>21.13101683765247</v>
+        <v>19.39215802545068</v>
       </c>
       <c r="N13">
-        <v>22.05779685295057</v>
+        <v>13.78872868585346</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.391070215023898</v>
+        <v>7.136795978433096</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.873700338035787</v>
+        <v>2.494662465076741</v>
       </c>
       <c r="E14">
-        <v>10.70975934501932</v>
+        <v>6.617402450555361</v>
       </c>
       <c r="F14">
-        <v>51.12876622478165</v>
+        <v>45.95159770020587</v>
       </c>
       <c r="G14">
-        <v>3.739149725774856</v>
+        <v>2.068383509029541</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>24.28853313331009</v>
+        <v>16.63156590062226</v>
       </c>
       <c r="J14">
-        <v>9.855288467504897</v>
+        <v>5.72078718956367</v>
       </c>
       <c r="K14">
-        <v>21.99499298736409</v>
+        <v>26.05104855943357</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>21.11018181715867</v>
+        <v>19.24623506197533</v>
       </c>
       <c r="N14">
-        <v>22.06814989110305</v>
+        <v>13.82945676315551</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.376946030740623</v>
+        <v>7.107848394646908</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.87350035650529</v>
+        <v>2.487935706507658</v>
       </c>
       <c r="E15">
-        <v>10.71061929460266</v>
+        <v>6.6069174365967</v>
       </c>
       <c r="F15">
-        <v>51.10739001598547</v>
+        <v>45.77423146631651</v>
       </c>
       <c r="G15">
-        <v>3.739571390982808</v>
+        <v>2.069784085308349</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>24.29348483595225</v>
+        <v>16.63478868636384</v>
       </c>
       <c r="J15">
-        <v>9.857215878609047</v>
+        <v>5.721244614357139</v>
       </c>
       <c r="K15">
-        <v>21.96263261631481</v>
+        <v>25.89136590294915</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>21.09750046824653</v>
+        <v>19.15675380993463</v>
       </c>
       <c r="N15">
-        <v>22.07452912219715</v>
+        <v>13.85448598116894</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.294957356162009</v>
+        <v>6.939356379888677</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.872436394780564</v>
+        <v>2.449628406764626</v>
       </c>
       <c r="E16">
-        <v>10.71595169423363</v>
+        <v>6.547796073510718</v>
       </c>
       <c r="F16">
-        <v>50.98836265012557</v>
+        <v>44.76479845249048</v>
       </c>
       <c r="G16">
-        <v>3.742023614217506</v>
+        <v>2.077816404465075</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>24.32288405316488</v>
+        <v>16.65749216039277</v>
       </c>
       <c r="J16">
-        <v>9.868569415659838</v>
+        <v>5.724787827781356</v>
       </c>
       <c r="K16">
-        <v>21.7779845265275</v>
+        <v>24.9660855667187</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>21.02607845540059</v>
+        <v>18.64242406686602</v>
       </c>
       <c r="N16">
-        <v>22.11166403393847</v>
+        <v>13.99915882343581</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.243736605919209</v>
+        <v>6.833681791324274</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.871857117333898</v>
+        <v>2.426324494024051</v>
       </c>
       <c r="E17">
-        <v>10.71958409245096</v>
+        <v>6.512373302004853</v>
       </c>
       <c r="F17">
-        <v>50.91845610395605</v>
+        <v>44.15162955329173</v>
       </c>
       <c r="G17">
-        <v>3.743560037725295</v>
+        <v>2.082753513045539</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>24.34183143909304</v>
+        <v>16.67506148817846</v>
       </c>
       <c r="J17">
-        <v>9.875809749093785</v>
+        <v>5.72776176325428</v>
       </c>
       <c r="K17">
-        <v>21.66547316150163</v>
+        <v>24.3891135446284</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>20.98339200370864</v>
+        <v>18.3254999509549</v>
       </c>
       <c r="N17">
-        <v>22.13496133619344</v>
+        <v>14.08900083607803</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.213941567389979</v>
+        <v>6.772057700522841</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.871551001127292</v>
+        <v>2.41298606452008</v>
       </c>
       <c r="E18">
-        <v>10.72180619013921</v>
+        <v>6.492304880836119</v>
       </c>
       <c r="F18">
-        <v>50.87939756653274</v>
+        <v>43.80114061805025</v>
       </c>
       <c r="G18">
-        <v>3.744455567765919</v>
+        <v>2.085598234454702</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>24.35306422892214</v>
+        <v>16.68645249857474</v>
       </c>
       <c r="J18">
-        <v>9.880075444620323</v>
+        <v>5.729757881032468</v>
       </c>
       <c r="K18">
-        <v>21.60106181669909</v>
+        <v>24.05373192643073</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>20.9592598981354</v>
+        <v>18.14269769691457</v>
       </c>
       <c r="N18">
-        <v>22.14855119409324</v>
+        <v>14.1410702516669</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.203796580363479</v>
+        <v>6.75104870247912</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.871452012509448</v>
+        <v>2.408480536230577</v>
       </c>
       <c r="E19">
-        <v>10.72258138023331</v>
+        <v>6.485562120669719</v>
       </c>
       <c r="F19">
-        <v>50.86637103506997</v>
+        <v>43.68284360444959</v>
       </c>
       <c r="G19">
-        <v>3.744760812386637</v>
+        <v>2.0865624094078</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>24.35692491735766</v>
+        <v>16.69052527569675</v>
       </c>
       <c r="J19">
-        <v>9.881537132087004</v>
+        <v>5.730482004727956</v>
       </c>
       <c r="K19">
-        <v>21.57930717128852</v>
+        <v>23.9395644491137</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>20.95116180434761</v>
+        <v>18.08071572765182</v>
       </c>
       <c r="N19">
-        <v>22.15318511061798</v>
+        <v>14.15876736377</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.249223850944506</v>
+        <v>6.845018410012023</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.871915982776406</v>
+        <v>2.428798326438601</v>
       </c>
       <c r="E20">
-        <v>10.71918367181913</v>
+        <v>6.5161123536554</v>
       </c>
       <c r="F20">
-        <v>50.92577889673073</v>
+        <v>44.21667491710047</v>
       </c>
       <c r="G20">
-        <v>3.743395260330726</v>
+        <v>2.082227462257185</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>24.33977980325906</v>
+        <v>16.67305699137063</v>
       </c>
       <c r="J20">
-        <v>9.875028526190713</v>
+        <v>5.727415438723439</v>
       </c>
       <c r="K20">
-        <v>21.67741939132924</v>
+        <v>24.45089584051078</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>20.98789269576342</v>
+        <v>18.35929050598364</v>
       </c>
       <c r="N20">
-        <v>22.13246165165361</v>
+        <v>14.07939603502997</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.39782442602289</v>
+        <v>7.150630858506714</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.873797683053391</v>
+        <v>2.497892675527178</v>
       </c>
       <c r="E21">
-        <v>10.7093541244233</v>
+        <v>6.622447560015367</v>
       </c>
       <c r="F21">
-        <v>51.1390778690757</v>
+        <v>46.03677547773451</v>
       </c>
       <c r="G21">
-        <v>3.738948158370754</v>
+        <v>2.067711944965238</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>24.28617676667265</v>
+        <v>16.63009739530661</v>
       </c>
       <c r="J21">
-        <v>9.854369672931744</v>
+        <v>5.72058447491879</v>
       </c>
       <c r="K21">
-        <v>22.01052398996623</v>
+        <v>26.12744374268097</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>21.11628478016163</v>
+        <v>19.28911676689402</v>
       </c>
       <c r="N21">
-        <v>22.06510109775055</v>
+        <v>13.8174767853187</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.4918625140296</v>
+        <v>7.342738544733651</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.875266739036654</v>
+        <v>2.543789058442795</v>
       </c>
       <c r="E22">
-        <v>10.70411024063467</v>
+        <v>6.694784362533943</v>
       </c>
       <c r="F22">
-        <v>51.28858945352989</v>
+        <v>47.24701950595499</v>
       </c>
       <c r="G22">
-        <v>3.736146201103714</v>
+        <v>2.05823613575999</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>24.25413289927522</v>
+        <v>16.61462525867248</v>
       </c>
       <c r="J22">
-        <v>9.841767965787154</v>
+        <v>5.718851070091921</v>
       </c>
       <c r="K22">
-        <v>22.23046482481375</v>
+        <v>27.19379419000115</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>21.20382281588649</v>
+        <v>20.02571824289299</v>
       </c>
       <c r="N22">
-        <v>22.02276467865784</v>
+        <v>13.64995488914818</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.44195929325454</v>
+        <v>7.240910274371531</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.874460871054968</v>
+        <v>2.519216953809467</v>
       </c>
       <c r="E23">
-        <v>10.70680113669119</v>
+        <v>6.655910617735657</v>
       </c>
       <c r="F23">
-        <v>51.20787421803526</v>
+        <v>46.59911872990865</v>
       </c>
       <c r="G23">
-        <v>3.737632135778234</v>
+        <v>2.063294325251635</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>24.27096146062878</v>
+        <v>16.62167049326123</v>
       </c>
       <c r="J23">
-        <v>9.848411453988646</v>
+        <v>5.719516635011807</v>
       </c>
       <c r="K23">
-        <v>22.11289542388364</v>
+        <v>26.62724489482109</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>21.15677600689263</v>
+        <v>19.61005381517328</v>
       </c>
       <c r="N23">
-        <v>22.04520615372806</v>
+        <v>13.73902129855467</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.246744148795171</v>
+        <v>6.83989583424824</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.871889285846745</v>
+        <v>2.427679723688899</v>
       </c>
       <c r="E24">
-        <v>10.71936428525288</v>
+        <v>6.514421005767969</v>
       </c>
       <c r="F24">
-        <v>50.92246473583783</v>
+        <v>44.18726159600578</v>
       </c>
       <c r="G24">
-        <v>3.74346971812085</v>
+        <v>2.08246526980082</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>24.34070628986362</v>
+        <v>16.67395921820113</v>
       </c>
       <c r="J24">
-        <v>9.875381395816781</v>
+        <v>5.727571122094426</v>
       </c>
       <c r="K24">
-        <v>21.67201764564613</v>
+        <v>24.42297552522869</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>20.98585665800363</v>
+        <v>18.34401566016992</v>
       </c>
       <c r="N24">
-        <v>22.13359114872531</v>
+        <v>14.0837370648583</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.023472824942586</v>
+        <v>6.375220640998558</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.870151331701203</v>
+        <v>2.331392126587672</v>
       </c>
       <c r="E25">
-        <v>10.73799551387197</v>
+        <v>6.373447140971127</v>
       </c>
       <c r="F25">
-        <v>50.65861660903443</v>
+        <v>41.66941567335866</v>
       </c>
       <c r="G25">
-        <v>3.75021887181987</v>
+        <v>2.103351153807132</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>24.42873089487084</v>
+        <v>16.77896489283629</v>
       </c>
       <c r="J25">
-        <v>9.90834470523887</v>
+        <v>5.747091259690954</v>
       </c>
       <c r="K25">
-        <v>21.20827860428775</v>
+        <v>21.99724266478914</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>20.81760647947141</v>
+        <v>17.00134603639971</v>
       </c>
       <c r="N25">
-        <v>22.23618994728552</v>
+        <v>14.47063660819516</v>
       </c>
       <c r="O25">
         <v>0</v>
